--- a/HrServiceCenterWeb/Files/批量导入人员模板.xlsx
+++ b/HrServiceCenterWeb/Files/批量导入人员模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Down\Chrome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E32D95-7D56-48BA-BFBD-522C3F11D609}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C376DE-DE38-46FB-AAA9-A5B319278225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>姓名</t>
   </si>
@@ -112,9 +112,6 @@
     <t>在职</t>
   </si>
   <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
     <t>汉族</t>
   </si>
   <si>
@@ -124,33 +121,40 @@
     <t>农商银行</t>
   </si>
   <si>
-    <t>峨眉山市川主镇人民政府</t>
-  </si>
-  <si>
-    <t>1990-08-24</t>
-  </si>
-  <si>
     <t>15282450520</t>
   </si>
   <si>
-    <t>川主乡顺河村一组4号附3号</t>
-  </si>
-  <si>
     <t>2017-12-01</t>
   </si>
   <si>
     <t>2050-08-24</t>
   </si>
   <si>
-    <t>测试1</t>
+    <t>6214571081002430000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>511181199008244000</t>
+    <t>五通桥区XX村一组4号附3号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6214571081002430000</t>
+    <t>511181199008241918</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>511181199108141918</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张某3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张某4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五通桥区教育局</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -204,6 +208,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -520,16 +530,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA33"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="16" max="16" width="32" customWidth="1"/>
     <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
@@ -545,7 +559,7 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
@@ -617,178 +631,109 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>9999</v>
+        <v>10001</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
-        <v>35</v>
+      <c r="E2" s="4">
+        <v>33474</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
         <v>37</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="Q2" t="s">
         <v>28</v>
       </c>
       <c r="R2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
         <v>32</v>
       </c>
-      <c r="S2" t="s">
-        <v>33</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="W2" s="3">
+        <v>45931</v>
       </c>
       <c r="X2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AA2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C3" s="1"/>
-      <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C4" s="1"/>
-      <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C5" s="1"/>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-      <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-      <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-      <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-      <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-      <c r="T19" s="1"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-      <c r="T20" s="1"/>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-      <c r="T21" s="1"/>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-      <c r="T22" s="1"/>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C23" s="1"/>
-      <c r="T23" s="1"/>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
-      <c r="T24" s="1"/>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
-      <c r="T25" s="1"/>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-      <c r="T26" s="1"/>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-      <c r="T27" s="1"/>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
-      <c r="T28" s="1"/>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
-      <c r="T29" s="1"/>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
-      <c r="T30" s="1"/>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-      <c r="T31" s="1"/>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="T32" s="1"/>
-    </row>
-    <row r="33" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T33" s="1"/>
+      <c r="A3" s="2">
+        <v>10002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4">
+        <v>33464</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="3">
+        <v>45931</v>
+      </c>
+      <c r="X3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/HrServiceCenterWeb/Files/批量导入人员模板.xlsx
+++ b/HrServiceCenterWeb/Files/批量导入人员模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\hr\sagacity\HrServiceCenterWeb\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C376DE-DE38-46FB-AAA9-A5B319278225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C583F7-7285-451E-B5B3-0056A85856CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>姓名</t>
   </si>
@@ -76,12 +76,6 @@
     <t>编号</t>
   </si>
   <si>
-    <t>银行</t>
-  </si>
-  <si>
-    <t>银行卡</t>
-  </si>
-  <si>
     <t>参工时间</t>
   </si>
   <si>
@@ -138,23 +132,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>511181199008241918</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>511181199108141918</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张某3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张某4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>五通桥区教育局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张某5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群众</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>511281199008241618</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>511281199108141718</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,23 +536,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="27.125" customWidth="1"/>
-    <col min="16" max="16" width="32" customWidth="1"/>
-    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.25" customWidth="1"/>
+    <col min="10" max="10" width="16.625" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.25" customWidth="1"/>
+    <col min="17" max="17" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -575,164 +582,179 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="X1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Y1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Z1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AA1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AB1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>100001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>10001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
       </c>
       <c r="E2" s="4">
         <v>33474</v>
       </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
       <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>45931</v>
+      </c>
+      <c r="R2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="U2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" s="3">
-        <v>45931</v>
-      </c>
-      <c r="X2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>10002</v>
+        <v>100002</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="4">
         <v>33464</v>
       </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
       <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+      <c r="N3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>45931</v>
+      </c>
+      <c r="R3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="U3" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" s="3">
-        <v>45931</v>
-      </c>
-      <c r="X3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/HrServiceCenterWeb/Files/批量导入人员模板.xlsx
+++ b/HrServiceCenterWeb/Files/批量导入人员模板.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\hr\sagacity\HrServiceCenterWeb\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C583F7-7285-451E-B5B3-0056A85856CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF33FB9-D935-46B6-980F-BCB136BADCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="身份证、日期和涉及编码字段请规范填写" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
   <si>
     <t>姓名</t>
   </si>
@@ -161,6 +161,50 @@
   </si>
   <si>
     <t>511281199108141718</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行行号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任职受雇从业类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任职受雇从业日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雇员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险营销员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张某6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>511281199108141719</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实习学生（全日制学历教育）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张某7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>511281199108141618</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -548,12 +592,15 @@
     <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="27.125" customWidth="1"/>
     <col min="10" max="10" width="16.625" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.25" customWidth="1"/>
-    <col min="17" max="17" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="25.75" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="23" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="12.25" customWidth="1"/>
+    <col min="20" max="20" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -588,58 +635,67 @@
         <v>15</v>
       </c>
       <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>41</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>8</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>11</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>100001</v>
       </c>
@@ -674,31 +730,38 @@
         <v>26</v>
       </c>
       <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" s="1"/>
+      <c r="R2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="T2" s="3">
         <v>45931</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>33</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>27</v>
       </c>
-      <c r="V2">
+      <c r="Y2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>100002</v>
       </c>
@@ -733,27 +796,166 @@
         <v>26</v>
       </c>
       <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
         <v>29</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" s="1"/>
+      <c r="R3" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="T3" s="3">
         <v>45931</v>
       </c>
-      <c r="R3" t="s">
+      <c r="U3" t="s">
         <v>33</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>27</v>
       </c>
-      <c r="V3">
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>100003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4">
+        <v>33464</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="3">
+        <v>45931</v>
+      </c>
+      <c r="U4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>100004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4">
+        <v>33464</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="3">
+        <v>45931</v>
+      </c>
+      <c r="U5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5">
         <v>0</v>
       </c>
     </row>
